--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test7(reserve).xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test7(reserve).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E866B19-A468-4FD9-97A0-E8A77666484E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9563FCAD-36C5-43E8-A05C-F940AC378EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -543,9 +543,6 @@
     <t xml:space="preserve">Осадка на кормовом перпендикуляре                               </t>
   </si>
   <si>
-    <t>Осадка средняя                                                  </t>
-  </si>
-  <si>
     <t>Осадка на носовом перпендикуляре                                </t>
   </si>
   <si>
@@ -727,6 +724,9 @@
   </si>
   <si>
     <t>м∙град</t>
+  </si>
+  <si>
+    <t>Осадка в цт площади ватерлинии                                                 </t>
   </si>
 </sst>
 </file>
@@ -1241,31 +1241,31 @@
         <v>78</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>216</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -1290,7 +1290,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -1329,10 +1329,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D3" s="19">
         <v>14135.3</v>
@@ -1343,7 +1343,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>131</v>
@@ -1357,7 +1357,7 @@
         <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>131</v>
@@ -1371,10 +1371,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D6" s="19">
         <v>4.8339999999999996</v>
@@ -1385,7 +1385,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>131</v>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -1421,7 +1421,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>166</v>
+        <v>227</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>131</v>
@@ -1435,7 +1435,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>131</v>
@@ -1463,10 +1463,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>54</v>
@@ -1480,7 +1480,7 @@
         <v>164</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D14" s="19">
         <v>-0.01</v>
@@ -1491,7 +1491,7 @@
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>131</v>
@@ -1506,7 +1506,7 @@
         <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>131</v>
@@ -1520,7 +1520,7 @@
         <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>131</v>
@@ -1534,7 +1534,7 @@
         <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>131</v>
@@ -1548,7 +1548,7 @@
         <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>131</v>
@@ -1562,7 +1562,7 @@
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>131</v>
@@ -1576,7 +1576,7 @@
         <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>131</v>
@@ -1590,7 +1590,7 @@
         <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>131</v>
@@ -1604,7 +1604,7 @@
         <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>131</v>
@@ -1618,7 +1618,7 @@
         <v>88</v>
       </c>
       <c r="B24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>131</v>
@@ -1632,7 +1632,7 @@
         <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>131</v>
@@ -1646,7 +1646,7 @@
         <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>131</v>
@@ -1660,7 +1660,7 @@
         <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>131</v>
@@ -1674,7 +1674,7 @@
         <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>131</v>
@@ -1688,7 +1688,7 @@
         <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>131</v>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
@@ -1710,10 +1710,10 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D31" s="19">
         <v>19.908000000000001</v>
@@ -1724,10 +1724,10 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>54</v>
@@ -1738,10 +1738,10 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D33" s="19">
         <v>194.59899999999999</v>
@@ -1752,7 +1752,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>131</v>
@@ -1810,7 +1810,7 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>131</v>
@@ -1826,7 +1826,7 @@
         <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>131</v>
@@ -1943,7 +1943,7 @@
         <v>109</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D47" s="19" t="s">
         <v>54</v>
@@ -1957,7 +1957,7 @@
         <v>110</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D48" s="19">
         <v>874.26</v>
@@ -2014,7 +2014,7 @@
         <v>114</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D52" s="19">
         <v>0.85499999999999998</v>
@@ -2028,7 +2028,7 @@
         <v>115</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D53" s="19">
         <v>1.278</v>
@@ -2042,7 +2042,7 @@
         <v>116</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D54" s="19" t="s">
         <v>54</v>
@@ -2056,7 +2056,7 @@
         <v>117</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="19">
         <v>23.393000000000001</v>
@@ -2070,7 +2070,7 @@
         <v>118</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D56" s="19">
         <v>8.0830000000000002</v>
@@ -2084,7 +2084,7 @@
         <v>119</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D57" s="19">
         <v>0.18057000000000001</v>
@@ -2098,7 +2098,7 @@
         <v>120</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="19">
         <v>0.72570000000000001</v>
@@ -2112,7 +2112,7 @@
         <v>121</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D59" s="19">
         <v>22.92</v>
@@ -2126,7 +2126,7 @@
         <v>122</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D60" s="19">
         <v>48.149000000000001</v>
@@ -2140,7 +2140,7 @@
         <v>123</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D61" s="19" t="s">
         <v>54</v>
@@ -2154,7 +2154,7 @@
         <v>124</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D62" s="19" t="s">
         <v>54</v>
@@ -2168,7 +2168,7 @@
         <v>125</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D63" s="19" t="s">
         <v>54</v>
@@ -2182,7 +2182,7 @@
         <v>126</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D64" s="19" t="s">
         <v>54</v>
@@ -2274,7 +2274,7 @@
         <v>56</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2361,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2395,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2429,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2446,7 +2446,7 @@
         <v>115.6</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2480,7 +2480,7 @@
         <v>38.200000000000003</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2514,7 +2514,7 @@
         <v>129.9</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2531,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2565,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2616,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2650,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2667,7 +2667,7 @@
         <v>107.9</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2684,7 +2684,7 @@
         <v>107.9</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2701,7 +2701,7 @@
         <v>77.8</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2718,7 +2718,7 @@
         <v>99.6</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2803,7 +2803,7 @@
         <v>19.7</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2820,7 +2820,7 @@
         <v>17</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2837,7 +2837,7 @@
         <v>11.3</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2854,7 +2854,7 @@
         <v>5.2</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2871,7 +2871,7 @@
         <v>0.5</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2888,7 +2888,7 @@
         <v>29.9</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2922,7 +2922,7 @@
         <v>17.100000000000001</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2973,7 +2973,7 @@
         <v>3.7</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2990,7 +2990,7 @@
         <v>0.8</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3007,7 +3007,7 @@
         <v>2.7</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3075,7 +3075,7 @@
         <v>0.9</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3092,7 +3092,7 @@
         <v>0.7</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3109,7 +3109,7 @@
         <v>0.7</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3126,7 +3126,7 @@
         <v>36.299999999999997</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3143,7 +3143,7 @@
         <v>36.299999999999997</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3269,16 +3269,16 @@
         <v>65</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>220</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>221</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>71</v>
@@ -3287,16 +3287,16 @@
         <v>72</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>224</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4999,7 +4999,7 @@
         <v>138</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D2" s="19">
         <v>4.0190000000000001</v>
@@ -5022,7 +5022,7 @@
         <v>141</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D3" s="19">
         <v>0.85499999999999998</v>
@@ -5045,7 +5045,7 @@
         <v>142</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D4" s="19">
         <v>0.29199999999999998</v>
@@ -5068,7 +5068,7 @@
         <v>143</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>54</v>
@@ -5091,7 +5091,7 @@
         <v>144</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D6" s="19">
         <v>0.52500000000000002</v>
@@ -5114,7 +5114,7 @@
         <v>145</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D7" s="19">
         <v>0.23300000000000001</v>
@@ -5206,7 +5206,7 @@
         <v>149</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D11" s="19">
         <v>55</v>
@@ -5229,7 +5229,7 @@
         <v>150</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>54</v>
@@ -5275,7 +5275,7 @@
         <v>152</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>54</v>
@@ -5298,7 +5298,7 @@
         <v>153</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>54</v>
@@ -5321,7 +5321,7 @@
         <v>154</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>54</v>
@@ -5344,7 +5344,7 @@
         <v>155</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>54</v>

--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test7(reserve).xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test7(reserve).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9563FCAD-36C5-43E8-A05C-F940AC378EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90FE2C7-2776-4762-ACFD-672C1A3AC8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="231">
   <si>
     <t>Форпик</t>
   </si>
@@ -288,9 +288,6 @@
     <t xml:space="preserve"> №   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Наименование                                                    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Размерность  </t>
   </si>
   <si>
@@ -727,6 +724,18 @@
   </si>
   <si>
     <t>Осадка в цт площади ватерлинии                                                 </t>
+  </si>
+  <si>
+    <t>Погрешность относительная</t>
+  </si>
+  <si>
+    <t>Погрешность абсолютная</t>
+  </si>
+  <si>
+    <t>±0,5 % ширины судна</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Наименование</t>
   </si>
 </sst>
 </file>
@@ -820,7 +829,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
@@ -887,8 +896,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1241,31 +1262,31 @@
         <v>78</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>215</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -1289,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1298,438 +1319,620 @@
     <col min="2" max="2" width="63" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.25" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="6" max="6" width="19.125" customWidth="1"/>
     <col min="9" max="9" width="4.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="60" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D3" s="19">
         <v>14135.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="10">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D4" s="19">
         <v>64.897999999999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D5" s="19">
         <v>64.897999999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D6" s="19">
         <v>4.8339999999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D7" s="19">
         <v>4.8819999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>52</v>
       </c>
       <c r="B8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>131</v>
-      </c>
       <c r="D8" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10" s="19">
         <v>8.0039999999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11" s="19">
         <v>7.85</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D12" s="19">
         <v>8.1449999999999996</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D14" s="19">
         <v>-0.01</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D15" s="19">
         <f>D11-D12</f>
         <v>-0.29499999999999993</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D17" s="19">
         <v>8.1340000000000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="10">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="10">
+        <v>1</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="10">
+        <v>1</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="10">
+        <v>1</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="10">
+        <v>1</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D23" s="19">
         <v>7.9969999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="10">
+        <v>1</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>88</v>
       </c>
       <c r="B24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="10">
+        <v>1</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="10">
+        <v>1</v>
+      </c>
+      <c r="F25" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="10">
+        <v>1</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="10">
+        <v>1</v>
+      </c>
+      <c r="F27" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="10">
+        <v>1</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D29" s="19">
         <v>7.8520000000000003</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="10">
+        <v>1</v>
+      </c>
+      <c r="F29" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D31" s="19">
         <v>19.908000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D32" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1738,13 +1941,19 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D33" s="19">
         <v>194.59899999999999</v>
+      </c>
+      <c r="E33" s="10">
+        <v>2</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1752,13 +1961,19 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D34" s="19">
         <v>4.1680000000000001</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1766,13 +1981,19 @@
         <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D35" s="19">
         <v>2.722</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -1780,45 +2001,63 @@
         <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D36" s="19">
         <f>D35+D34</f>
         <v>6.8900000000000006</v>
       </c>
+      <c r="E36" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D37" s="21">
         <f>D40+D39+D38</f>
         <v>2.0558376829639271</v>
       </c>
+      <c r="E37" s="10">
+        <v>1</v>
+      </c>
+      <c r="F37" s="10">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D38" s="21">
         <f>(108.1+17.1+10.8+14.9+101.8)/D3</f>
         <v>1.7877229347803017E-2</v>
       </c>
+      <c r="E38" s="10">
+        <v>2</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="L38" s="10"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -1826,28 +2065,40 @@
         <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D39" s="21">
         <f>423.5/D3</f>
         <v>2.9960453616124174E-2</v>
       </c>
+      <c r="E39" s="10">
+        <v>2</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D40" s="19">
         <v>2.008</v>
+      </c>
+      <c r="E40" s="10">
+        <v>1</v>
+      </c>
+      <c r="F40" s="10">
+        <v>0.05</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -1855,13 +2106,19 @@
         <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" s="19">
         <v>179.65899999999999</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -1869,28 +2126,40 @@
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="19">
         <f>D41+D34</f>
         <v>183.827</v>
       </c>
+      <c r="E42" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="19" t="s">
         <v>54</v>
+      </c>
+      <c r="E43" s="10">
+        <v>1</v>
+      </c>
+      <c r="F43" s="10">
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -1898,12 +2167,18 @@
         <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1912,12 +2187,18 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D45" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1926,12 +2207,18 @@
         <v>24</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D46" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1940,12 +2227,18 @@
         <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D47" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F47" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1954,287 +2247,407 @@
         <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D48" s="19">
         <v>874.26</v>
       </c>
+      <c r="E48" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="L48" s="10"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D49" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="10">
+        <v>5</v>
+      </c>
+      <c r="F49" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>36</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D50" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="10">
+        <v>5</v>
+      </c>
+      <c r="F50" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D51" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="10">
+        <v>5</v>
+      </c>
+      <c r="F51" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D52" s="19">
         <v>0.85499999999999998</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>39</v>
       </c>
       <c r="B53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D53" s="19">
         <v>1.278</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F53" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>40</v>
       </c>
       <c r="B54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F54" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>41</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="19">
         <v>23.393000000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F55" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>42</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D56" s="19">
         <v>8.0830000000000002</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>43</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="19">
         <v>0.18057000000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>44</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="19">
         <v>0.72570000000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
         <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D59" s="19">
         <v>22.92</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F59" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <v>46</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D60" s="19">
         <v>48.149000000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F60" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
         <v>47</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D61" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F61" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
         <v>48</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D62" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="10">
+        <v>5</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <v>49</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D63" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F63" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>50</v>
       </c>
       <c r="B64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D64" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
         <v>53</v>
       </c>
       <c r="B65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C65" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D65" s="19">
+        <v>0</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="F65" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="10">
+        <v>54</v>
+      </c>
+      <c r="B66" t="s">
         <v>131</v>
       </c>
-      <c r="D65" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="10">
-        <v>54</v>
-      </c>
-      <c r="B66" t="s">
-        <v>132</v>
-      </c>
       <c r="C66" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D66" s="19">
         <v>62.052999999999997</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="10">
+        <v>1</v>
+      </c>
+      <c r="F66" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
         <v>55</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D67" s="19">
         <v>64.896000000000001</v>
       </c>
+      <c r="E67" s="10">
+        <v>1</v>
+      </c>
+      <c r="F67" s="10">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A30:F30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2274,7 +2687,7 @@
         <v>56</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -2293,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2310,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2327,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2344,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2361,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2378,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2395,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2412,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2429,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2446,7 +2859,7 @@
         <v>115.6</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2463,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2480,7 +2893,7 @@
         <v>38.200000000000003</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2497,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2514,7 +2927,7 @@
         <v>129.9</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2531,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2548,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2565,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2582,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2599,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2616,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2633,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2650,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2667,7 +3080,7 @@
         <v>107.9</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2684,7 +3097,7 @@
         <v>107.9</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2701,7 +3114,7 @@
         <v>77.8</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2718,7 +3131,7 @@
         <v>99.6</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2735,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2752,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2769,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2786,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2803,7 +3216,7 @@
         <v>19.7</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2820,7 +3233,7 @@
         <v>17</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2837,7 +3250,7 @@
         <v>11.3</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2854,7 +3267,7 @@
         <v>5.2</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2871,7 +3284,7 @@
         <v>0.5</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2888,7 +3301,7 @@
         <v>29.9</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2905,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2922,7 +3335,7 @@
         <v>17.100000000000001</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2939,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2956,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2973,7 +3386,7 @@
         <v>3.7</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2990,7 +3403,7 @@
         <v>0.8</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3007,7 +3420,7 @@
         <v>2.7</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3024,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3041,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3058,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3075,7 +3488,7 @@
         <v>0.9</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3092,7 +3505,7 @@
         <v>0.7</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3109,7 +3522,7 @@
         <v>0.7</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3126,7 +3539,7 @@
         <v>36.299999999999997</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3143,7 +3556,7 @@
         <v>36.299999999999997</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3160,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3206,7 +3619,7 @@
         <v>56</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3223,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3240,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3269,16 +3682,16 @@
         <v>65</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>219</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>220</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>71</v>
@@ -3287,16 +3700,16 @@
         <v>72</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>223</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4634,29 +5047,39 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2769FB-623F-4B71-8DF9-7FDDF69C0946}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>18.600000000000001</v>
       </c>
@@ -4669,8 +5092,14 @@
       <c r="D2" s="10">
         <v>21362.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>39.32</v>
       </c>
@@ -4683,8 +5112,14 @@
       <c r="D3" s="10">
         <v>-89257.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="10">
+        <v>5</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>91.12</v>
       </c>
@@ -4697,8 +5132,14 @@
       <c r="D4" s="10">
         <v>-108138.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="10">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>119.98</v>
       </c>
@@ -4711,8 +5152,14 @@
       <c r="D5" s="10">
         <v>-860.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="10">
+        <v>5</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>54.88</v>
       </c>
@@ -4725,8 +5172,14 @@
       <c r="D6" s="10">
         <v>-123203.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="10">
+        <v>5</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>100.68</v>
       </c>
@@ -4739,8 +5192,14 @@
       <c r="D7" s="10">
         <v>-90358.399999999994</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="10">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>29.68</v>
       </c>
@@ -4753,8 +5212,14 @@
       <c r="D8" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="10">
+        <v>5</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>110.38</v>
       </c>
@@ -4765,6 +5230,12 @@
         <v>7807.4</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="10">
+        <v>5</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4775,184 +5246,312 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5DE354-6FE8-4F4E-92DF-8FA9F59E1489}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.375" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>-40</v>
       </c>
       <c r="B2" s="18">
         <v>-1.5335000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="10">
+        <v>5</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>-35</v>
       </c>
       <c r="B3" s="18">
         <v>-1.3392999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="10">
+        <v>5</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>-30</v>
       </c>
       <c r="B4" s="18">
         <v>-1.1332</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="10">
+        <v>5</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>-25</v>
       </c>
       <c r="B5" s="18">
         <v>-0.95289999999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="10">
+        <v>5</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>-20</v>
       </c>
       <c r="B6" s="18">
         <v>-0.74909999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="10">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>-15</v>
       </c>
       <c r="B7" s="18">
         <v>-0.54779999999999995</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="10">
+        <v>5</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>-10</v>
       </c>
       <c r="B8" s="18">
         <v>-0.35799999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="10">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>-5</v>
       </c>
       <c r="B9" s="18">
         <v>-0.1769</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="10">
+        <v>5</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>0</v>
       </c>
       <c r="B10" s="18">
         <v>-2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="10">
+        <v>5</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>5</v>
       </c>
       <c r="B11" s="18">
         <v>0.17649999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="10">
+        <v>5</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>10</v>
       </c>
       <c r="B12" s="18">
         <v>0.35749999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="10">
+        <v>5</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>15</v>
       </c>
       <c r="B13" s="18">
         <v>0.5474</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="10">
+        <v>5</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>20</v>
       </c>
       <c r="B14" s="18">
         <v>0.74860000000000004</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="10">
+        <v>5</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>25</v>
       </c>
       <c r="B15" s="18">
         <v>0.95250000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="10">
+        <v>5</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>30</v>
       </c>
       <c r="B16" s="18">
         <v>1.1328</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="10">
+        <v>5</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>35</v>
       </c>
       <c r="B17" s="18">
         <v>1.3389</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="10">
+        <v>5</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>40</v>
       </c>
       <c r="B18" s="18">
         <v>1.5330999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="10">
+        <v>5</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>45</v>
       </c>
       <c r="B19" s="18">
         <v>1.7018</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="10">
+        <v>5</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>50</v>
       </c>
       <c r="B20" s="18">
         <v>1.8349</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="10">
+        <v>5</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>55</v>
       </c>
       <c r="B21" s="18">
         <v>1.9184000000000001</v>
+      </c>
+      <c r="C21" s="10">
+        <v>5</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -4966,7 +5565,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4975,411 +5574,419 @@
     <col min="2" max="2" width="41.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>127</v>
+      <c r="C1" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D2" s="19">
         <v>4.0190000000000001</v>
       </c>
-      <c r="E2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" t="s">
-        <v>140</v>
+      <c r="E2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D3" s="19">
         <v>0.85499999999999998</v>
       </c>
-      <c r="E3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F3" t="s">
-        <v>140</v>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D4" s="19">
         <v>0.29199999999999998</v>
       </c>
-      <c r="E4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4" t="s">
-        <v>140</v>
+      <c r="E4" s="10">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="G4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" t="s">
-        <v>140</v>
+      <c r="E5" s="10">
+        <v>5</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="G5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D6" s="19">
         <v>0.52500000000000002</v>
       </c>
-      <c r="E6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" t="s">
-        <v>140</v>
+      <c r="E6" s="10">
+        <v>5</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="G6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D7" s="19">
         <v>0.23300000000000001</v>
       </c>
-      <c r="E7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" t="s">
-        <v>140</v>
+      <c r="E7" s="10">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="G7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D8" s="19">
         <v>1.9179999999999999</v>
       </c>
-      <c r="E8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" t="s">
-        <v>140</v>
+      <c r="E8" s="10">
+        <v>5</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.05</v>
       </c>
       <c r="G8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F9" t="s">
-        <v>140</v>
+      <c r="E9" s="10">
+        <v>5</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.05</v>
       </c>
       <c r="G9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" t="s">
-        <v>140</v>
+      <c r="E10" s="10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.05</v>
       </c>
       <c r="G10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D11" s="19">
         <v>55</v>
       </c>
-      <c r="E11" t="s">
-        <v>139</v>
-      </c>
-      <c r="F11" t="s">
-        <v>140</v>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" t="s">
-        <v>140</v>
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D13" s="19">
         <v>2.008</v>
       </c>
-      <c r="E13" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" t="s">
-        <v>140</v>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.05</v>
       </c>
       <c r="G13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E14" t="s">
-        <v>139</v>
-      </c>
-      <c r="F14" t="s">
-        <v>140</v>
+      <c r="E14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="G14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F15" t="s">
-        <v>140</v>
-      </c>
       <c r="G15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F16" t="s">
-        <v>140</v>
-      </c>
       <c r="G16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E17" t="s">
-        <v>139</v>
-      </c>
-      <c r="F17" t="s">
-        <v>140</v>
+      <c r="E17" s="10">
+        <v>5</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="G17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D18" s="19">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E18" t="s">
-        <v>139</v>
-      </c>
-      <c r="F18" t="s">
-        <v>140</v>
+      <c r="E18" s="10">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0.05</v>
       </c>
       <c r="G18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test7(reserve).xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test7(reserve).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90FE2C7-2776-4762-ACFD-672C1A3AC8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240B1C96-5BF0-4F17-A2A6-A3C43215CD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="GrainBulkheads" sheetId="55" r:id="rId5"/>
     <sheet name="Stores" sheetId="57" r:id="rId6"/>
     <sheet name="SF&amp;BM" sheetId="63" r:id="rId7"/>
-    <sheet name="Stabilitycurve" sheetId="61" r:id="rId8"/>
-    <sheet name="StabilityCriteria" sheetId="62" r:id="rId9"/>
-    <sheet name="Parameters" sheetId="65" r:id="rId10"/>
+    <sheet name="SF&amp;BM_max" sheetId="68" r:id="rId8"/>
+    <sheet name="Stabilitycurve" sheetId="61" r:id="rId9"/>
+    <sheet name="StabilityCriteria" sheetId="62" r:id="rId10"/>
+    <sheet name="Parameters" sheetId="65" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="236">
   <si>
     <t>Форпик</t>
   </si>
@@ -736,6 +737,21 @@
   </si>
   <si>
     <t xml:space="preserve"> Наименование</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>BMmax_abs</t>
+  </si>
+  <si>
+    <t>BMmax_perc</t>
+  </si>
+  <si>
+    <t>SFmax_abs</t>
+  </si>
+  <si>
+    <t>SFmax_perc</t>
   </si>
 </sst>
 </file>
@@ -899,9 +915,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -910,6 +923,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1232,7 +1248,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1307,10 +1323,444 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E500720D-7F16-4373-97E5-9F957C7E1B58}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="19">
+        <v>4.0190000000000001</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="19">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="E4" s="10">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="10">
+        <v>5</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E6" s="10">
+        <v>5</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="E7" s="10">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1.9179999999999999</v>
+      </c>
+      <c r="E8" s="10">
+        <v>5</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="G8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="10">
+        <v>5</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="G9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="G10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" s="19">
+        <v>55</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="19">
+        <v>2.008</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="G13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="10">
+        <v>5</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E18" s="10">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="G18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A30" sqref="A30:F30"/>
     </sheetView>
   </sheetViews>
@@ -1326,16 +1776,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>126</v>
       </c>
       <c r="E1" s="24" t="s">
@@ -1346,14 +1796,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
@@ -1476,14 +1926,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
@@ -1887,14 +2337,14 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
@@ -5047,29 +5497,31 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2769FB-623F-4B71-8DF9-7FDDF69C0946}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="1" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
     <col min="6" max="6" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>161</v>
       </c>
       <c r="E1" s="24" t="s">
@@ -5156,86 +5608,6 @@
         <v>5</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>54.88</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="10">
-        <v>-123203.6</v>
-      </c>
-      <c r="E6" s="10">
-        <v>5</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>100.68</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="10">
-        <v>-90358.399999999994</v>
-      </c>
-      <c r="E7" s="10">
-        <v>5</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>29.68</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="10">
-        <v>-9162.6</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="10">
-        <v>5</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>110.38</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="10">
-        <v>7807.4</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="10">
-        <v>5</v>
-      </c>
-      <c r="F9" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5245,6 +5617,113 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCBB111-F63A-4568-8630-36CD42916C91}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="10">
+        <v>54.88</v>
+      </c>
+      <c r="C2" s="10">
+        <v>-123203.6</v>
+      </c>
+      <c r="D2" s="10">
+        <v>5</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" s="10">
+        <v>100.68</v>
+      </c>
+      <c r="C3" s="10">
+        <v>-90358.399999999994</v>
+      </c>
+      <c r="D3" s="10">
+        <v>5</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" s="10">
+        <v>29.68</v>
+      </c>
+      <c r="C4" s="10">
+        <v>-9162.6</v>
+      </c>
+      <c r="D4" s="10">
+        <v>5</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" s="10">
+        <v>110.38</v>
+      </c>
+      <c r="C5" s="10">
+        <v>7807.4</v>
+      </c>
+      <c r="D5" s="10">
+        <v>5</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5DE354-6FE8-4F4E-92DF-8FA9F59E1489}">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -5261,10 +5740,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>135</v>
       </c>
       <c r="C1" s="24" t="s">
@@ -5558,438 +6037,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E500720D-7F16-4373-97E5-9F957C7E1B58}">
-  <dimension ref="A1:G18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="D2" s="19">
-        <v>4.0190000000000001</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" s="19">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="E3" s="10">
-        <v>1</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="19">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="E4" s="10">
-        <v>5</v>
-      </c>
-      <c r="F4" s="10">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="10">
-        <v>5</v>
-      </c>
-      <c r="F5" s="10">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="D6" s="19">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="E6" s="10">
-        <v>5</v>
-      </c>
-      <c r="F6" s="10">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7" s="19">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="E7" s="10">
-        <v>5</v>
-      </c>
-      <c r="F7" s="10">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="19">
-        <v>1.9179999999999999</v>
-      </c>
-      <c r="E8" s="10">
-        <v>5</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="G8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="10">
-        <v>5</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="G9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="10">
-        <v>5</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="G10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D11" s="19">
-        <v>55</v>
-      </c>
-      <c r="E11" s="10">
-        <v>1</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="10">
-        <v>1</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" s="19">
-        <v>2.008</v>
-      </c>
-      <c r="E13" s="10">
-        <v>1</v>
-      </c>
-      <c r="F13" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="G13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="10">
-        <v>1</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="G15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="10">
-        <v>1</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="G16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="10">
-        <v>5</v>
-      </c>
-      <c r="F17" s="10">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="G17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" t="s">
-        <v>155</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="19">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E18" s="10">
-        <v>1</v>
-      </c>
-      <c r="F18" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="G18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test7(reserve).xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test7(reserve).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240B1C96-5BF0-4F17-A2A6-A3C43215CD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DE102E-D16E-421B-BC2E-9B3BF4FFB8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -1760,8 +1760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:F30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2609,7 +2609,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="10">
-        <v>50</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -5620,7 +5620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCBB111-F63A-4568-8630-36CD42916C91}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>

--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test7(reserve).xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test7(reserve).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DE102E-D16E-421B-BC2E-9B3BF4FFB8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA944992-D89C-4747-863B-8AA45BAB7040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="235">
   <si>
     <t>Форпик</t>
   </si>
@@ -461,9 +461,6 @@
   </si>
   <si>
     <t xml:space="preserve">        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     </t>
   </si>
   <si>
     <t xml:space="preserve"> Статический крен от ветра              </t>
@@ -1278,31 +1275,31 @@
         <v>78</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>214</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -1326,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E500720D-7F16-4373-97E5-9F957C7E1B58}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1342,22 +1339,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>126</v>
       </c>
       <c r="E1" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>227</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1368,7 +1365,7 @@
         <v>137</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D2" s="19">
         <v>4.0190000000000001</v>
@@ -1388,19 +1385,19 @@
         <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D3" s="19">
         <v>0.85499999999999998</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="10">
         <v>1</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="G3" t="s">
         <v>138</v>
@@ -1411,10 +1408,10 @@
         <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="19">
         <v>0.29199999999999998</v>
@@ -1434,10 +1431,10 @@
         <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>54</v>
@@ -1457,10 +1454,10 @@
         <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D6" s="19">
         <v>0.52500000000000002</v>
@@ -1480,10 +1477,10 @@
         <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D7" s="19">
         <v>0.23300000000000001</v>
@@ -1503,7 +1500,7 @@
         <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>130</v>
@@ -1526,7 +1523,7 @@
         <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>130</v>
@@ -1549,7 +1546,7 @@
         <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>130</v>
@@ -1572,19 +1569,19 @@
         <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D11" s="19">
         <v>55</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="10">
         <v>1</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="G11" t="s">
         <v>138</v>
@@ -1595,19 +1592,19 @@
         <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="10">
         <v>1</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="G12" t="s">
         <v>138</v>
@@ -1618,7 +1615,7 @@
         <v>93</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>130</v>
@@ -1641,10 +1638,10 @@
         <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>54</v>
@@ -1664,19 +1661,19 @@
         <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="10">
         <v>1</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>139</v>
       </c>
       <c r="G15" t="s">
         <v>138</v>
@@ -1687,19 +1684,19 @@
         <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="10">
         <v>1</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>139</v>
       </c>
       <c r="G16" t="s">
         <v>138</v>
@@ -1710,10 +1707,10 @@
         <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>54</v>
@@ -1733,7 +1730,7 @@
         <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>130</v>
@@ -1760,7 +1757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
@@ -1780,7 +1777,7 @@
         <v>80</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>81</v>
@@ -1789,15 +1786,15 @@
         <v>126</v>
       </c>
       <c r="E1" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>227</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -1810,10 +1807,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D3" s="19">
         <v>14135.3</v>
@@ -1830,7 +1827,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>130</v>
@@ -1850,7 +1847,7 @@
         <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>130</v>
@@ -1870,10 +1867,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D6" s="19">
         <v>4.8339999999999996</v>
@@ -1890,7 +1887,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>130</v>
@@ -1919,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F8" s="10">
         <v>0.05</v>
@@ -1927,7 +1924,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
@@ -1940,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>130</v>
@@ -1960,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>130</v>
@@ -1980,7 +1977,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>130</v>
@@ -2000,10 +1997,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>54</v>
@@ -2020,10 +2017,10 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D14" s="19">
         <v>-0.01</v>
@@ -2040,7 +2037,7 @@
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>130</v>
@@ -2061,7 +2058,7 @@
         <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>130</v>
@@ -2081,7 +2078,7 @@
         <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>130</v>
@@ -2101,7 +2098,7 @@
         <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>130</v>
@@ -2121,7 +2118,7 @@
         <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>130</v>
@@ -2141,7 +2138,7 @@
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>130</v>
@@ -2161,7 +2158,7 @@
         <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>130</v>
@@ -2181,7 +2178,7 @@
         <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>130</v>
@@ -2201,7 +2198,7 @@
         <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>130</v>
@@ -2221,7 +2218,7 @@
         <v>88</v>
       </c>
       <c r="B24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>130</v>
@@ -2241,7 +2238,7 @@
         <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>130</v>
@@ -2261,7 +2258,7 @@
         <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>130</v>
@@ -2281,7 +2278,7 @@
         <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>130</v>
@@ -2301,7 +2298,7 @@
         <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>130</v>
@@ -2321,7 +2318,7 @@
         <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>130</v>
@@ -2338,7 +2335,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
@@ -2351,10 +2348,10 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D31" s="19">
         <v>19.908000000000001</v>
@@ -2371,10 +2368,10 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>54</v>
@@ -2391,10 +2388,10 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D33" s="19">
         <v>194.59899999999999</v>
@@ -2411,7 +2408,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>130</v>
@@ -2493,7 +2490,7 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>130</v>
@@ -2515,7 +2512,7 @@
         <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>130</v>
@@ -2680,7 +2677,7 @@
         <v>108</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D47" s="19" t="s">
         <v>54</v>
@@ -2700,7 +2697,7 @@
         <v>109</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D48" s="19">
         <v>874.26</v>
@@ -2781,7 +2778,7 @@
         <v>113</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D52" s="19">
         <v>0.85499999999999998</v>
@@ -2801,7 +2798,7 @@
         <v>114</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D53" s="19">
         <v>1.278</v>
@@ -2821,7 +2818,7 @@
         <v>115</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="19" t="s">
         <v>54</v>
@@ -2841,7 +2838,7 @@
         <v>116</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="19">
         <v>23.393000000000001</v>
@@ -2861,7 +2858,7 @@
         <v>117</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D56" s="19">
         <v>8.0830000000000002</v>
@@ -2881,7 +2878,7 @@
         <v>118</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="19">
         <v>0.18057000000000001</v>
@@ -2901,7 +2898,7 @@
         <v>119</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="19">
         <v>0.72570000000000001</v>
@@ -2921,7 +2918,7 @@
         <v>120</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D59" s="19">
         <v>22.92</v>
@@ -2941,7 +2938,7 @@
         <v>121</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D60" s="19">
         <v>48.149000000000001</v>
@@ -2961,7 +2958,7 @@
         <v>122</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D61" s="19" t="s">
         <v>54</v>
@@ -2981,7 +2978,7 @@
         <v>123</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D62" s="19" t="s">
         <v>54</v>
@@ -3001,7 +2998,7 @@
         <v>124</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D63" s="19" t="s">
         <v>54</v>
@@ -3021,7 +3018,7 @@
         <v>125</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D64" s="19" t="s">
         <v>54</v>
@@ -3047,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F65" s="10">
         <v>0.05</v>
@@ -3137,7 +3134,7 @@
         <v>56</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -3156,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3173,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3190,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3207,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3224,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3241,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3258,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3275,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3292,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3309,7 +3306,7 @@
         <v>115.6</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3326,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3343,7 +3340,7 @@
         <v>38.200000000000003</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3360,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3377,7 +3374,7 @@
         <v>129.9</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3394,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3411,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3428,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3445,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3462,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3479,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3496,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3513,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3530,7 +3527,7 @@
         <v>107.9</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3547,7 +3544,7 @@
         <v>107.9</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3564,7 +3561,7 @@
         <v>77.8</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3581,7 +3578,7 @@
         <v>99.6</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3598,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3615,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3632,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3649,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3666,7 +3663,7 @@
         <v>19.7</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3683,7 +3680,7 @@
         <v>17</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3700,7 +3697,7 @@
         <v>11.3</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3717,7 +3714,7 @@
         <v>5.2</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3734,7 +3731,7 @@
         <v>0.5</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3751,7 +3748,7 @@
         <v>29.9</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3768,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3785,7 +3782,7 @@
         <v>17.100000000000001</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3802,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3819,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3836,7 +3833,7 @@
         <v>3.7</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3853,7 +3850,7 @@
         <v>0.8</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3870,7 +3867,7 @@
         <v>2.7</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3887,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3904,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3921,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3938,7 +3935,7 @@
         <v>0.9</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3955,7 +3952,7 @@
         <v>0.7</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3972,7 +3969,7 @@
         <v>0.7</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3989,7 +3986,7 @@
         <v>36.299999999999997</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -4006,7 +4003,7 @@
         <v>36.299999999999997</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -4023,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -4132,16 +4129,16 @@
         <v>65</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>218</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>219</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>71</v>
@@ -4150,16 +4147,16 @@
         <v>72</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>222</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -5513,22 +5510,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>161</v>
-      </c>
       <c r="E1" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>227</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -5638,21 +5635,21 @@
         <v>65</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D1" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>227</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B2" s="10">
         <v>54.88</v>
@@ -5669,7 +5666,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B3" s="10">
         <v>100.68</v>
@@ -5686,7 +5683,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B4" s="10">
         <v>29.68</v>
@@ -5703,7 +5700,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B5" s="10">
         <v>110.38</v>
@@ -5747,10 +5744,10 @@
         <v>135</v>
       </c>
       <c r="C1" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>227</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test7(reserve).xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test7(reserve).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA944992-D89C-4747-863B-8AA45BAB7040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9991BADC-09BA-4D04-B8E7-C6DE5DF551BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="236">
   <si>
     <t>Форпик</t>
   </si>
@@ -749,6 +749,9 @@
   </si>
   <si>
     <t>SFmax_perc</t>
+  </si>
+  <si>
+    <t>Поправка к поперечной метацентрической высоте</t>
   </si>
 </sst>
 </file>
@@ -842,7 +845,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
@@ -922,6 +925,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1323,7 +1329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E500720D-7F16-4373-97E5-9F957C7E1B58}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -1755,10 +1761,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3088,6 +3094,27 @@
       </c>
       <c r="F67" s="10">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="10">
+        <v>95</v>
+      </c>
+      <c r="B68" t="s">
+        <v>235</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D68" s="29">
+        <f>D38+D39</f>
+        <v>4.7837682963927194E-2</v>
+      </c>
+      <c r="E68" s="10">
+        <v>2</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test7(reserve).xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test7(reserve).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9991BADC-09BA-4D04-B8E7-C6DE5DF551BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9DE8C9-20E9-464F-95C0-1293AB2E7718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="236">
   <si>
     <t>Форпик</t>
   </si>
@@ -924,10 +924,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1763,8 +1763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1799,14 +1799,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
@@ -1929,14 +1929,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
@@ -2340,14 +2340,14 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
@@ -2505,8 +2505,8 @@
         <f>(108.1+17.1+10.8+14.9+101.8)/D3</f>
         <v>1.7877229347803017E-2</v>
       </c>
-      <c r="E38" s="10">
-        <v>2</v>
+      <c r="E38" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>54</v>
@@ -2527,8 +2527,8 @@
         <f>423.5/D3</f>
         <v>2.9960453616124174E-2</v>
       </c>
-      <c r="E39" s="10">
-        <v>2</v>
+      <c r="E39" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>54</v>
@@ -3106,7 +3106,7 @@
       <c r="C68" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D68" s="29">
+      <c r="D68" s="28">
         <f>D38+D39</f>
         <v>4.7837682963927194E-2</v>
       </c>
